--- a/SGameProject/assets/xlsx/buff.xlsx
+++ b/SGameProject/assets/xlsx/buff.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20385" windowHeight="8340"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="buff" sheetId="1" r:id="rId1"/>
@@ -16,21 +16,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>HLL</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Windows 用户:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -38,8 +29,23 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-1是销毁</t>
+          <t xml:space="preserve">HLL:
+-1是永久</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Windows 用户:
+1是销毁
+2是生产</t>
         </r>
       </text>
     </comment>
@@ -48,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>id</t>
   </si>
@@ -62,49 +68,41 @@
     <t>triggercd</t>
   </si>
   <si>
+    <t>animationpre</t>
+  </si>
+  <si>
+    <t>triggertype</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
     <t>animationpre#[]</t>
+  </si>
+  <si>
+    <t>param#[]</t>
   </si>
   <si>
     <t>cat2</t>
   </si>
   <si>
-    <t>animationpre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>normalboom</t>
   </si>
   <si>
-    <t>triggertype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>param</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>param#[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggertype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggercd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normalboom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>downrole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,34 +111,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -148,27 +464,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -458,21 +1061,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,22 +1084,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -509,21 +1113,21 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -541,12 +1145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -564,10 +1168,33 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SGameProject/assets/xlsx/buff.xlsx
+++ b/SGameProject/assets/xlsx/buff.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20385" windowHeight="8340"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="buff" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>HLL:
+          <t xml:space="preserve">HLL:
 -1是永久</t>
         </r>
       </text>
@@ -43,7 +43,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Windows 用户:
+          <t xml:space="preserve">Windows 用户:
 1是销毁
 2是生产
 3是进入下落爆炸状态</t>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>id</t>
   </si>
@@ -69,6 +69,9 @@
     <t>triggercd</t>
   </si>
   <si>
+    <t>triggernum</t>
+  </si>
+  <si>
     <t>animationpre</t>
   </si>
   <si>
@@ -94,22 +97,22 @@
   </si>
   <si>
     <t>downboom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggernum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>roundboom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,27 +128,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -153,9 +474,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -163,20 +726,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -466,21 +1071,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,19 +1100,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -520,24 +1126,24 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -558,12 +1164,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -584,18 +1190,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -610,15 +1216,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -627,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -636,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -663,9 +1269,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SGameProject/assets/xlsx/buff.xlsx
+++ b/SGameProject/assets/xlsx/buff.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20385" windowHeight="8340"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="buff" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>HLL:
+          <t xml:space="preserve">HLL:
 -1是永久</t>
         </r>
       </text>
@@ -43,7 +43,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Windows 用户:
+          <t xml:space="preserve">Windows 用户:
 1是触发自己的技能
 2是生产
 3是进入下落爆炸状态
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>id</t>
   </si>
@@ -106,8 +106,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,27 +122,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -144,9 +475,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -158,16 +731,58 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -457,21 +1072,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +1114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -523,7 +1140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -549,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -575,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
@@ -601,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -627,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -654,9 +1271,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SGameProject/assets/xlsx/buff.xlsx
+++ b/SGameProject/assets/xlsx/buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20385" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20385" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="buff" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,9 @@
 1是触发自己的技能
 2是生产
 3是进入下落爆炸状态
-4是直接销毁</t>
+4是直接销毁
+5是加生命
+6清除某个id的buff</t>
         </r>
       </text>
     </comment>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -101,6 +103,22 @@
   </si>
   <si>
     <t>cat4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lockboom1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lockboom2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -459,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -655,6 +673,110 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>41</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SGameProject/assets/xlsx/buff.xlsx
+++ b/SGameProject/assets/xlsx/buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20385" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20385" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="buff" sheetId="1" r:id="rId1"/>
@@ -48,8 +48,9 @@
 2是生产
 3是进入下落爆炸状态
 4是直接销毁
-5是加生命
-6清除某个id的buff</t>
+5是改某个属性，参数1是属性名，2是增加改变或减少，3是是否永久，4是值
+6清除某个id的buff
+7是改某个属性</t>
         </r>
       </text>
     </comment>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -106,19 +107,54 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>lock1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>lockboom1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>lock2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>lockboom2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock1addbood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock2addblood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock1changeboomskill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock2changeboomskill</t>
+  </si>
+  <si>
+    <t>blood,1,0,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood,1,0,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boomSkill,0,0,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boomSkill,0,0,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggertype</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -477,18 +513,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="4" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -511,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -606,7 +643,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,7 +715,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -695,8 +732,8 @@
       <c r="G8">
         <v>5</v>
       </c>
-      <c r="H8">
-        <v>1</v>
+      <c r="H8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -704,13 +741,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -721,8 +758,8 @@
       <c r="G9">
         <v>6</v>
       </c>
-      <c r="H9">
-        <v>6</v>
+      <c r="H9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -730,7 +767,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -747,8 +784,8 @@
       <c r="G10">
         <v>5</v>
       </c>
-      <c r="H10">
-        <v>2</v>
+      <c r="H10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -756,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -773,8 +810,60 @@
       <c r="G11">
         <v>6</v>
       </c>
-      <c r="H11">
-        <v>8</v>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/SGameProject/assets/xlsx/buff.xlsx
+++ b/SGameProject/assets/xlsx/buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20385" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20385" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="buff" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -747,7 +747,7 @@
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>

--- a/SGameProject/assets/xlsx/buff.xlsx
+++ b/SGameProject/assets/xlsx/buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20385" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="20385" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="buff" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -146,15 +146,45 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>triggertype</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock1changebChange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bChange,0,0,false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock1changebFloat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bFloat,0,0,false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock2changebChange</t>
+  </si>
+  <si>
+    <t>lock2changebFloat</t>
+  </si>
+  <si>
+    <t>6,10,12,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,11,14,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bChange,0,0,false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bFloat,0,0,false</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -548,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -643,10 +673,10 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -681,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -759,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -811,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -864,6 +894,110 @@
       </c>
       <c r="H13" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
